--- a/public/data/downside_risk_-_year.xlsx
+++ b/public/data/downside_risk_-_year.xlsx
@@ -595,94 +595,94 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>3672</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.364814259472764</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.825359215686274</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.19017347515904</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-17.19934640522876</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-30.99082706993028</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.82535921568628</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-35779733.78194224</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-9851708.402352255</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-7103128.559472259</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>323074.53792</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-3071654.3808</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-45631442.18429451</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-3151582.996067189</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4195440.103160923</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-2800860.809589479</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-3802983.350393677</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-155524.8518937884</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-218072.4289129355</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-1467171.035105374</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-1985514.970305197</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-48783025.1803617</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-49826882.28745543</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6331694158570289</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.331672257357259</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03515832678571205</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6331371940702528</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3305571603287144</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03630564560103267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -690,94 +690,94 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
-        <v>8760</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-31.39887671232876</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-33.39887671232876</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-62.29967123287671</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.09939726027397371</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31.00019178082192</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32448319.75584922</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-80755354.56</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-69038594.16</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>473040</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-12189800.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-48307034.80415079</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-6119609.998599664</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7984760.118122038</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-5835154.080893861</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-7796855.27637657</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-16757.23056925386</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-22519.7486827328</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-1752782.702817573</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-2273472.434645221</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-54426644.80275045</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-56291794.92227283</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7673095156670543</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2304869465524925</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.002203537780453207</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7725129412195465</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2252558005777865</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.002231258202667029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -785,94 +785,94 @@
         <v>2027</v>
       </c>
       <c r="B4" t="n">
-        <v>8760</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-102393126.2427646</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>70395360</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>77079240</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1839600</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-8523480</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-31997766.2427646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4162865.740890441</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-5454143.487459219</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-4071245.542026059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-5376293.838841881</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-51873.21997142905</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-69219.55541659148</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-854707.6265570523</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-1131763.190340081</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>-36160631.98365504</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-37451909.73022381</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8178761620507754</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.171702980345452</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01042085760377271</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1720717041138629</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -880,94 +880,94 @@
         <v>2028</v>
       </c>
       <c r="B5" t="n">
-        <v>8784</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-102871554.3084968</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>65568168</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>68089176</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1906128</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-4427136</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>-37303386.3084968</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-1747494.191664356</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-2279698.018527351</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-1696366.305596608</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-2218596.390782984</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-55289.69981280511</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-74506.31528722626</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-418883.2501498017</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-555010.3957826175</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>-39050880.50016115</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-39583084.32702415</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7815414078560668</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1929857979195502</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02547279422438289</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7789706066587333</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1948695069102269</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02615988643103973</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/downside_risk_-_year.xlsx
+++ b/public/data/downside_risk_-_year.xlsx
@@ -595,94 +595,94 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>2928</v>
+        <v>1464</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.886575806125681</v>
+        <v>-24.52165163960656</v>
       </c>
       <c r="D2" t="n">
-        <v>2.830655409836066</v>
+        <v>-16</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.717231215961747</v>
+        <v>-8.521651639606555</v>
       </c>
       <c r="F2" t="n">
-        <v>-11.14754098360656</v>
+        <v>-14.23770491803279</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-31.56969023235519</v>
+        <v>-32.28394672157377</v>
       </c>
       <c r="I2" t="n">
-        <v>40.83065540983606</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>-33250090.94163311</v>
+        <v>-10215455.18021918</v>
       </c>
       <c r="K2" t="n">
-        <v>-4190401.571761776</v>
+        <v>-9749001.786106624</v>
       </c>
       <c r="L2" t="n">
-        <v>-1989986.048881779</v>
+        <v>-8566089.786106626</v>
       </c>
       <c r="M2" t="n">
-        <v>190627.65792</v>
+        <v>-538752</v>
       </c>
       <c r="N2" t="n">
-        <v>-2391043.1808</v>
+        <v>-644160</v>
       </c>
       <c r="O2" t="n">
-        <v>-37440492.51339488</v>
+        <v>-19964456.9663258</v>
       </c>
       <c r="P2" t="n">
-        <v>-2543424.322539552</v>
+        <v>-2008939.295058536</v>
       </c>
       <c r="Q2" t="n">
-        <v>-3279767.034063266</v>
+        <v>-2710234.509721451</v>
       </c>
       <c r="R2" t="n">
-        <v>-2262160.343437232</v>
+        <v>-1968073.429277345</v>
       </c>
       <c r="S2" t="n">
-        <v>-2911489.166003432</v>
+        <v>-2647321.368222869</v>
       </c>
       <c r="T2" t="n">
-        <v>-120496.2710230357</v>
+        <v>-240922.1206943727</v>
       </c>
       <c r="U2" t="n">
-        <v>-170090.078101899</v>
+        <v>-331898.925224974</v>
       </c>
       <c r="V2" t="n">
-        <v>-1128745.903164479</v>
+        <v>-360116.3408383845</v>
       </c>
       <c r="W2" t="n">
-        <v>-1533025.601880313</v>
+        <v>-497587.0703739266</v>
       </c>
       <c r="X2" t="n">
-        <v>-39983916.83593444</v>
+        <v>-21973396.26138434</v>
       </c>
       <c r="Y2" t="n">
-        <v>-40720259.54745815</v>
+        <v>-22674691.47604726</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6442327053315003</v>
+        <v>0.7660520494717591</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3214515845161517</v>
+        <v>0.1401715285840786</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03431571015234796</v>
+        <v>0.09377642194416227</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.630929248153546</v>
+        <v>0.7614230790494201</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3322116742485393</v>
+        <v>0.1431160884987801</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03685907759791491</v>
+        <v>0.09546083245179988</v>
       </c>
     </row>
     <row r="3">
@@ -693,16 +693,16 @@
         <v>8760</v>
       </c>
       <c r="C3" t="n">
-        <v>-21.39854794520548</v>
+        <v>-30.39854794520548</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="E3" t="n">
-        <v>-23.39854794520548</v>
+        <v>-15.39854794520548</v>
       </c>
       <c r="F3" t="n">
-        <v>-62.29967123287671</v>
+        <v>-54.29967123287671</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -711,73 +711,73 @@
         <v>9.900931506849314</v>
       </c>
       <c r="I3" t="n">
-        <v>31.00019178082192</v>
+        <v>14.00019178082192</v>
       </c>
       <c r="J3" t="n">
-        <v>14891507.24465396</v>
+        <v>26936420.36638319</v>
       </c>
       <c r="K3" t="n">
-        <v>-65719106.4</v>
+        <v>-79709789.28</v>
       </c>
       <c r="L3" t="n">
-        <v>-46862820</v>
+        <v>-65773946.16000001</v>
       </c>
       <c r="M3" t="n">
-        <v>473040</v>
+        <v>-3547800</v>
       </c>
       <c r="N3" t="n">
-        <v>-19329326.4</v>
+        <v>-10388043.12</v>
       </c>
       <c r="O3" t="n">
-        <v>-50827599.15534606</v>
+        <v>-52773368.9136168</v>
       </c>
       <c r="P3" t="n">
-        <v>-11737334.5292157</v>
+        <v>-10603258.02218977</v>
       </c>
       <c r="Q3" t="n">
-        <v>-15315223.98462833</v>
+        <v>-13662569.04841331</v>
       </c>
       <c r="R3" t="n">
-        <v>-6963002.372409183</v>
+        <v>-9307605.199537568</v>
       </c>
       <c r="S3" t="n">
-        <v>-9279561.048043424</v>
+        <v>-12386684.4324668</v>
       </c>
       <c r="T3" t="n">
-        <v>-34682.2521122957</v>
+        <v>-207530.0169988174</v>
       </c>
       <c r="U3" t="n">
-        <v>-46868.44259255709</v>
+        <v>-285020.2594165013</v>
       </c>
       <c r="V3" t="n">
-        <v>-9171189.443524752</v>
+        <v>-4587564.165481533</v>
       </c>
       <c r="W3" t="n">
-        <v>-12289138.39752567</v>
+        <v>-6026962.655919218</v>
       </c>
       <c r="X3" t="n">
-        <v>-62564933.68456175</v>
+        <v>-63376626.93580657</v>
       </c>
       <c r="Y3" t="n">
-        <v>-66142823.13997439</v>
+        <v>-66435937.96203011</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.4306423776390114</v>
+        <v>0.6599874922814788</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.567212621294969</v>
+        <v>0.325296884037041</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.002145001066019592</v>
+        <v>0.01471562368148008</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4292998960774759</v>
+        <v>0.6624367502811632</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5685318313684531</v>
+        <v>0.3223204383400891</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.002168272554070895</v>
+        <v>0.01524281137874765</v>
       </c>
     </row>
     <row r="4">
@@ -788,10 +788,10 @@
         <v>8760</v>
       </c>
       <c r="C4" t="n">
-        <v>6.601452054794521</v>
+        <v>-0.3985479452054798</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>-0.3985479452054798</v>
@@ -806,73 +806,73 @@
         <v>19.90093150684931</v>
       </c>
       <c r="I4" t="n">
-        <v>21.00019178082192</v>
+        <v>14.00019178082192</v>
       </c>
       <c r="J4" t="n">
-        <v>-38161882.25712045</v>
+        <v>-26227248.81128233</v>
       </c>
       <c r="K4" t="n">
-        <v>5897945.999999999</v>
+        <v>-9366475.199999999</v>
       </c>
       <c r="L4" t="n">
-        <v>12144031.2</v>
+        <v>-715712.4000000004</v>
       </c>
       <c r="M4" t="n">
-        <v>1839600</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-8085685.2</v>
+        <v>-8650762.800000001</v>
       </c>
       <c r="O4" t="n">
-        <v>-32263936.25712044</v>
+        <v>-35593724.01128233</v>
       </c>
       <c r="P4" t="n">
-        <v>-1670200.405476195</v>
+        <v>-1023670.786048729</v>
       </c>
       <c r="Q4" t="n">
-        <v>-2104835.083861957</v>
+        <v>-1374702.908301602</v>
       </c>
       <c r="R4" t="n">
-        <v>-1243310.809223274</v>
+        <v>-62875.65905759094</v>
       </c>
       <c r="S4" t="n">
-        <v>-1604694.164708844</v>
+        <v>-82903.90723792138</v>
       </c>
       <c r="T4" t="n">
-        <v>-60801.40228677866</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-80487.31260040274</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-1096850.784813541</v>
+        <v>-1026177.305349417</v>
       </c>
       <c r="W4" t="n">
-        <v>-1433198.118297206</v>
+        <v>-1371471.099656287</v>
       </c>
       <c r="X4" t="n">
-        <v>-33934136.66259664</v>
+        <v>-36617394.79733106</v>
       </c>
       <c r="Y4" t="n">
-        <v>-34368771.34098239</v>
+        <v>-36968426.91958393</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5178383886494953</v>
+        <v>0.05773425270627393</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4568378548495177</v>
+        <v>0.942265747293726</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02532375650098692</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5145923116511312</v>
+        <v>0.05700311600854664</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.4595970677580328</v>
+        <v>0.9429968839914533</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.025810620590836</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -883,10 +883,10 @@
         <v>8784</v>
       </c>
       <c r="C5" t="n">
-        <v>6.596420765027323</v>
+        <v>-0.4035792349726779</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>-0.4035792349726779</v>
@@ -901,73 +901,73 @@
         <v>19.8972131147541</v>
       </c>
       <c r="I5" t="n">
-        <v>21.00210382513661</v>
+        <v>14.00210382513661</v>
       </c>
       <c r="J5" t="n">
-        <v>-44751047.27232352</v>
+        <v>-29453256.1154099</v>
       </c>
       <c r="K5" t="n">
-        <v>8284396.079999997</v>
+        <v>-4283971.200000002</v>
       </c>
       <c r="L5" t="n">
-        <v>10893276.48</v>
+        <v>-691282.8000000007</v>
       </c>
       <c r="M5" t="n">
-        <v>1906128</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-4515008.4</v>
+        <v>-3592688.4</v>
       </c>
       <c r="O5" t="n">
-        <v>-36466651.19232351</v>
+        <v>-33737227.3154099</v>
       </c>
       <c r="P5" t="n">
-        <v>-961158.6112267948</v>
+        <v>-412482.9895764095</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1223180.099414535</v>
+        <v>-541252.9576973275</v>
       </c>
       <c r="R5" t="n">
-        <v>-751839.0250824083</v>
+        <v>-40862.1834751188</v>
       </c>
       <c r="S5" t="n">
-        <v>-971452.6873653352</v>
+        <v>-52926.5025603289</v>
       </c>
       <c r="T5" t="n">
-        <v>-55126.93627898432</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-73312.64391990975</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-585345.1782418661</v>
+        <v>-412157.8334528714</v>
       </c>
       <c r="W5" t="n">
-        <v>-754795.0281958523</v>
+        <v>-537143.3846469999</v>
       </c>
       <c r="X5" t="n">
-        <v>-37427809.80355031</v>
+        <v>-34149710.30498631</v>
       </c>
       <c r="Y5" t="n">
-        <v>-37689831.29173805</v>
+        <v>-34278480.27310722</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5399935428920335</v>
+        <v>0.09019950984111602</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4204126230065652</v>
+        <v>0.9098004901588839</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03959383410140124</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5398277875188656</v>
+        <v>0.08969531187368061</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4194330155246903</v>
+        <v>0.9103046881263194</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.04073919695644409</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
